--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -391,36 +391,40 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>26.3239436619718</v>
+      </c>
       <c r="C2" t="n">
-        <v>29.125</v>
+        <v>35.2631578947368</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0714285714286</v>
+        <v>34.3606557377049</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>27.6190476190476</v>
       </c>
       <c r="F2" t="n">
-        <v>32.8292682926829</v>
+        <v>33.2987012987013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>29.4225352112676</v>
+      </c>
       <c r="C3" t="n">
-        <v>30.1333333333333</v>
+        <v>35.6279069767442</v>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>24.4590163934426</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>26.92</v>
       </c>
       <c r="F3" t="n">
-        <v>31.8</v>
+        <v>30.5727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>26.3239436619718</v>
+        <v>30.5598705501618</v>
       </c>
       <c r="C2" t="n">
-        <v>35.2631578947368</v>
+        <v>36.7049608355091</v>
       </c>
       <c r="D2" t="n">
-        <v>34.3606557377049</v>
+        <v>30.3550724637681</v>
       </c>
       <c r="E2" t="n">
-        <v>27.6190476190476</v>
+        <v>32.4707692307692</v>
       </c>
       <c r="F2" t="n">
-        <v>33.2987012987013</v>
+        <v>33.287775246773</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>29.4225352112676</v>
+        <v>32.2250803858521</v>
       </c>
       <c r="C3" t="n">
-        <v>35.6279069767442</v>
+        <v>40.3689839572192</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4590163934426</v>
+        <v>30.0074906367041</v>
       </c>
       <c r="E3" t="n">
-        <v>26.92</v>
+        <v>33.1504702194357</v>
       </c>
       <c r="F3" t="n">
-        <v>30.5727272727273</v>
+        <v>30.7006033182504</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Donation to own country</t>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>30.5598705501618</v>
+        <v>34.4636207086126</v>
       </c>
       <c r="C2" t="n">
-        <v>36.7049608355091</v>
+        <v>33.5510096638651</v>
       </c>
       <c r="D2" t="n">
-        <v>30.3550724637681</v>
+        <v>30.6435656672018</v>
       </c>
       <c r="E2" t="n">
-        <v>32.4707692307692</v>
+        <v>40.1296146988717</v>
       </c>
       <c r="F2" t="n">
-        <v>33.287775246773</v>
+        <v>30.4901107169969</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.2078963786729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>32.2250803858521</v>
+        <v>31.4549347743222</v>
       </c>
       <c r="C3" t="n">
-        <v>40.3689839572192</v>
+        <v>34.4538017988322</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0074906367041</v>
+        <v>32.2225233585544</v>
       </c>
       <c r="E3" t="n">
-        <v>33.1504702194357</v>
+        <v>41.3809425739528</v>
       </c>
       <c r="F3" t="n">
-        <v>30.7006033182504</v>
+        <v>31.3620305485283</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.6681505566701</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>34.4636207086126</v>
+        <v>34.9303541550107</v>
       </c>
       <c r="C2" t="n">
-        <v>33.5510096638651</v>
+        <v>33.3493500342704</v>
       </c>
       <c r="D2" t="n">
-        <v>30.6435656672018</v>
+        <v>30.8847291840582</v>
       </c>
       <c r="E2" t="n">
-        <v>40.1296146988717</v>
+        <v>37.8038936473504</v>
       </c>
       <c r="F2" t="n">
-        <v>30.4901107169969</v>
+        <v>30.5184908989099</v>
       </c>
       <c r="G2" t="n">
-        <v>32.2078963786729</v>
+        <v>32.4933210789256</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>31.4549347743222</v>
+        <v>32.4170426815481</v>
       </c>
       <c r="C3" t="n">
-        <v>34.4538017988322</v>
+        <v>34.9892393774354</v>
       </c>
       <c r="D3" t="n">
-        <v>32.2225233585544</v>
+        <v>32.9608905657364</v>
       </c>
       <c r="E3" t="n">
-        <v>41.3809425739528</v>
+        <v>41.1863626130046</v>
       </c>
       <c r="F3" t="n">
-        <v>31.3620305485283</v>
+        <v>31.4362747268953</v>
       </c>
       <c r="G3" t="n">
-        <v>33.6681505566701</v>
+        <v>33.0546204213236</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>34.9303541550107</v>
+        <v>34.9304086469416</v>
       </c>
       <c r="C2" t="n">
-        <v>33.3493500342704</v>
+        <v>33.7439838771859</v>
       </c>
       <c r="D2" t="n">
-        <v>30.8847291840582</v>
+        <v>30.8890063461271</v>
       </c>
       <c r="E2" t="n">
-        <v>37.8038936473504</v>
+        <v>37.8073482687932</v>
       </c>
       <c r="F2" t="n">
-        <v>30.5184908989099</v>
+        <v>34.1502700783871</v>
       </c>
       <c r="G2" t="n">
-        <v>32.4933210789256</v>
+        <v>32.4930281084478</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>32.4170426815481</v>
+        <v>32.4215786291119</v>
       </c>
       <c r="C3" t="n">
-        <v>34.9892393774354</v>
+        <v>35.0933006004266</v>
       </c>
       <c r="D3" t="n">
-        <v>32.9608905657364</v>
+        <v>32.9610545136991</v>
       </c>
       <c r="E3" t="n">
-        <v>41.1863626130046</v>
+        <v>41.1882908718533</v>
       </c>
       <c r="F3" t="n">
-        <v>31.4362747268953</v>
+        <v>31.5603096042035</v>
       </c>
       <c r="G3" t="n">
-        <v>33.0546204213236</v>
+        <v>33.0522941093669</v>
       </c>
     </row>
   </sheetData>
